--- a/matsukifudousan/files/駐車場賃貸借契約書.xlsx
+++ b/matsukifudousan/files/駐車場賃貸借契約書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fudousan\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D53BD3-7188-4B46-8766-5960B6B266D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D367628E-2F2F-48B2-A12F-3880ABD39E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3F1C3FB-E25C-45EE-92D0-9990A4C85B05}"/>
   </bookViews>
@@ -920,22 +920,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -969,6 +957,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,644 +1287,644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC199375-22C8-419E-9B4A-35821AD687BA}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7">
+      <c r="E14" s="15"/>
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7">
+      <c r="E15" s="15"/>
+      <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7">
+      <c r="E16" s="15"/>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7">
+      <c r="E17" s="15"/>
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
+      <c r="E18" s="17"/>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C86" s="16">
+      <c r="C86" s="12">
         <v>44339</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
     <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
